--- a/Code/Absolventen/absolventendb_STO/Absolventen_all.xlsx
+++ b/Code/Absolventen/absolventendb_STO/Absolventen_all.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\GitHub\Documents\Code\Absolventen\absolventendb_STO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="10605"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$V$241</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -7215,7 +7220,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -7251,6 +7256,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7511,7 +7519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
